--- a/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1_极光组.xlsx
+++ b/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1_极光组.xlsx
@@ -907,7 +907,7 @@
   <dimension ref="A1:V187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5367,6 +5367,6 @@
   </autoFilter>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1_极光组.xlsx
+++ b/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1_极光组.xlsx
@@ -10,15 +10,15 @@
     <sheet name="版本5.1.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.1 新特性|Fix Bug'!$A$1:$U$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.1 新特性|Fix Bug'!$A$1:$U$7</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="51">
   <si>
     <t>No</t>
   </si>
@@ -136,10 +136,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>蘑菇宝（聚有财）放款短信合并</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>租客拉卡拉到期后，再签聚有财 ，发送还款提醒</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -191,11 +187,19 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>定时器</t>
+    <t>parnterapp、parnterpc、bs</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>parnterapp、parnterpc、bs</t>
+    <t>王云飞</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -904,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V187"/>
+  <dimension ref="A1:V186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1009,16 +1013,16 @@
         <v>23</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>20</v>
@@ -1034,15 +1038,21 @@
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="21"/>
+      <c r="N2" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="O2" s="21"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="21"/>
+      <c r="P2" s="13">
+        <v>42691</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="R2" s="19"/>
       <c r="S2" s="19"/>
       <c r="T2" s="19"/>
@@ -1057,16 +1067,16 @@
         <v>23</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>20</v>
@@ -1082,15 +1092,21 @@
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="21"/>
+      <c r="N3" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="O3" s="21"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="21"/>
+      <c r="P3" s="13">
+        <v>42691</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="R3" s="19"/>
       <c r="S3" s="19"/>
       <c r="T3" s="19"/>
@@ -1105,13 +1121,13 @@
         <v>23</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>27</v>
@@ -1130,15 +1146,21 @@
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="21"/>
+      <c r="N4" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="O4" s="21"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="21"/>
+      <c r="P4" s="13">
+        <v>42691</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="R4" s="23"/>
       <c r="S4" s="23"/>
       <c r="T4" s="23"/>
@@ -1153,16 +1175,16 @@
         <v>23</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>20</v>
@@ -1178,15 +1200,21 @@
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="O5" s="21"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="21"/>
+      <c r="P5" s="13">
+        <v>42691</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="R5" s="23"/>
       <c r="S5" s="23"/>
       <c r="T5" s="23"/>
@@ -1201,16 +1229,16 @@
         <v>23</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>20</v>
@@ -1226,22 +1254,28 @@
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="11"/>
+      <c r="N6" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="O6" s="21"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="21"/>
+      <c r="P6" s="13">
+        <v>42691</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="R6" s="23"/>
       <c r="S6" s="23"/>
       <c r="T6" s="23"/>
       <c r="U6" s="29"/>
       <c r="V6" s="30"/>
     </row>
-    <row r="7" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1">
+    <row r="7" spans="1:22" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1249,16 +1283,16 @@
         <v>23</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>20</v>
@@ -1274,22 +1308,28 @@
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="21" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="11"/>
+      <c r="N7" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="O7" s="21"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="21"/>
+      <c r="P7" s="13">
+        <v>42691</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="R7" s="23"/>
       <c r="S7" s="23"/>
       <c r="T7" s="23"/>
       <c r="U7" s="29"/>
       <c r="V7" s="30"/>
     </row>
-    <row r="8" spans="1:22" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="8" spans="1:22" s="4" customFormat="1" ht="16.5">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -1297,16 +1337,16 @@
         <v>23</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>20</v>
@@ -1327,17 +1367,23 @@
       <c r="M8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="11"/>
+      <c r="N8" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="O8" s="21"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="21"/>
+      <c r="P8" s="13">
+        <v>42691</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="R8" s="23"/>
       <c r="S8" s="23"/>
       <c r="T8" s="23"/>
       <c r="U8" s="29"/>
       <c r="V8" s="30"/>
     </row>
-    <row r="9" spans="1:22" s="4" customFormat="1" ht="16.5">
+    <row r="9" spans="1:22" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1345,16 +1391,16 @@
         <v>23</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>20</v>
@@ -1369,23 +1415,29 @@
         <v>42691</v>
       </c>
       <c r="K9" s="12"/>
-      <c r="L9" s="21" t="s">
-        <v>26</v>
+      <c r="L9" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="11"/>
+      <c r="N9" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="O9" s="21"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="21"/>
+      <c r="P9" s="13">
+        <v>42691</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="R9" s="23"/>
       <c r="S9" s="23"/>
       <c r="T9" s="23"/>
       <c r="U9" s="29"/>
       <c r="V9" s="30"/>
     </row>
-    <row r="10" spans="1:22" s="4" customFormat="1" ht="21" customHeight="1">
+    <row r="10" spans="1:22" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1393,16 +1445,16 @@
         <v>23</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>37</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>20</v>
@@ -1416,61 +1468,43 @@
       <c r="J10" s="13">
         <v>42691</v>
       </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="22" t="s">
+      <c r="K10" s="11"/>
+      <c r="L10" s="21" t="s">
         <v>41</v>
       </c>
       <c r="M10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="11"/>
+      <c r="N10" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="O10" s="21"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="30"/>
-    </row>
-    <row r="11" spans="1:22" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="13">
+      <c r="P10" s="13">
         <v>42691</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="13">
-        <v>42691</v>
-      </c>
+      <c r="Q10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="28"/>
+    </row>
+    <row r="11" spans="1:22" s="3" customFormat="1" ht="16.5">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="13"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="L11" s="21"/>
+      <c r="M11" s="12"/>
       <c r="N11" s="11"/>
       <c r="O11" s="21"/>
       <c r="P11" s="13"/>
@@ -1535,13 +1569,13 @@
       <c r="C14" s="9"/>
       <c r="D14" s="15"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="12"/>
       <c r="H14" s="13"/>
       <c r="I14" s="14"/>
       <c r="J14" s="13"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="21"/>
+      <c r="L14" s="22"/>
       <c r="M14" s="12"/>
       <c r="N14" s="11"/>
       <c r="O14" s="21"/>
@@ -1565,7 +1599,7 @@
       <c r="I15" s="14"/>
       <c r="J15" s="13"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="22"/>
+      <c r="L15" s="21"/>
       <c r="M15" s="12"/>
       <c r="N15" s="11"/>
       <c r="O15" s="21"/>
@@ -1581,16 +1615,16 @@
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="15"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
+      <c r="G16" s="11"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
+      <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="11"/>
       <c r="L16" s="21"/>
-      <c r="M16" s="12"/>
+      <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="21"/>
       <c r="P16" s="13"/>
@@ -1750,16 +1784,16 @@
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="16"/>
-      <c r="E23" s="11"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
       <c r="O23" s="21"/>
       <c r="P23" s="13"/>
       <c r="Q23" s="21"/>
@@ -1798,17 +1832,17 @@
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
+      <c r="E25" s="19"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="21"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="17"/>
       <c r="P25" s="13"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="19"/>
@@ -1856,8 +1890,8 @@
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
       <c r="N27" s="19"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="13"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="18"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="19"/>
       <c r="S27" s="19"/>
@@ -1890,9 +1924,9 @@
       <c r="V28" s="28"/>
     </row>
     <row r="29" spans="1:22" s="3" customFormat="1" ht="16.5">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="16"/>
       <c r="E29" s="19"/>
       <c r="F29" s="11"/>
@@ -1905,12 +1939,12 @@
       <c r="M29" s="19"/>
       <c r="N29" s="19"/>
       <c r="O29" s="19"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="21"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="26"/>
       <c r="R29" s="19"/>
       <c r="S29" s="19"/>
       <c r="T29" s="19"/>
-      <c r="U29" s="27"/>
+      <c r="U29" s="26"/>
       <c r="V29" s="28"/>
     </row>
     <row r="30" spans="1:22" s="3" customFormat="1" ht="16.5">
@@ -1937,10 +1971,10 @@
       <c r="U30" s="26"/>
       <c r="V30" s="28"/>
     </row>
-    <row r="31" spans="1:22" s="3" customFormat="1" ht="16.5">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
+    <row r="31" spans="1:22" ht="16.5">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="16"/>
       <c r="E31" s="19"/>
       <c r="F31" s="11"/>
@@ -1954,12 +1988,11 @@
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
       <c r="P31" s="20"/>
-      <c r="Q31" s="26"/>
+      <c r="Q31" s="16"/>
       <c r="R31" s="19"/>
       <c r="S31" s="19"/>
       <c r="T31" s="19"/>
-      <c r="U31" s="26"/>
-      <c r="V31" s="28"/>
+      <c r="U31" s="16"/>
     </row>
     <row r="32" spans="1:22" ht="16.5">
       <c r="A32" s="19"/>
@@ -3072,7 +3105,7 @@
       <c r="D80" s="16"/>
       <c r="E80" s="19"/>
       <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
+      <c r="G80" s="19"/>
       <c r="H80" s="20"/>
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
@@ -3203,13 +3236,13 @@
       <c r="T85" s="19"/>
       <c r="U85" s="16"/>
     </row>
-    <row r="86" spans="1:21" ht="16.5">
+    <row r="86" spans="1:21">
       <c r="A86" s="19"/>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
       <c r="D86" s="16"/>
       <c r="E86" s="19"/>
-      <c r="F86" s="11"/>
+      <c r="F86" s="19"/>
       <c r="G86" s="19"/>
       <c r="H86" s="20"/>
       <c r="I86" s="19"/>
@@ -4739,9 +4772,6 @@
       <c r="O152" s="19"/>
       <c r="P152" s="20"/>
       <c r="Q152" s="16"/>
-      <c r="R152" s="19"/>
-      <c r="S152" s="19"/>
-      <c r="T152" s="19"/>
       <c r="U152" s="16"/>
     </row>
     <row r="153" spans="1:21">
@@ -5306,19 +5336,6 @@
     </row>
     <row r="181" spans="1:21">
       <c r="A181" s="19"/>
-      <c r="B181" s="19"/>
-      <c r="C181" s="19"/>
-      <c r="D181" s="16"/>
-      <c r="E181" s="19"/>
-      <c r="F181" s="19"/>
-      <c r="G181" s="19"/>
-      <c r="H181" s="20"/>
-      <c r="I181" s="19"/>
-      <c r="J181" s="20"/>
-      <c r="K181" s="25"/>
-      <c r="L181" s="19"/>
-      <c r="M181" s="19"/>
-      <c r="N181" s="19"/>
       <c r="O181" s="19"/>
       <c r="P181" s="20"/>
       <c r="Q181" s="16"/>
@@ -5333,7 +5350,6 @@
     </row>
     <row r="183" spans="1:21">
       <c r="A183" s="19"/>
-      <c r="O183" s="19"/>
       <c r="P183" s="20"/>
       <c r="Q183" s="16"/>
       <c r="U183" s="16"/>
@@ -5346,7 +5362,6 @@
     </row>
     <row r="185" spans="1:21">
       <c r="A185" s="19"/>
-      <c r="P185" s="20"/>
       <c r="Q185" s="16"/>
       <c r="U185" s="16"/>
     </row>
@@ -5355,13 +5370,8 @@
       <c r="Q186" s="16"/>
       <c r="U186" s="16"/>
     </row>
-    <row r="187" spans="1:21">
-      <c r="A187" s="19"/>
-      <c r="Q187" s="16"/>
-      <c r="U187" s="16"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:U8">
+  <autoFilter ref="A1:U7">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
   </autoFilter>

--- a/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1_极光组.xlsx
+++ b/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1_极光组.xlsx
@@ -910,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1377,7 +1377,9 @@
       <c r="Q8" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="R8" s="23"/>
+      <c r="R8" s="23">
+        <v>5231</v>
+      </c>
       <c r="S8" s="23"/>
       <c r="T8" s="23"/>
       <c r="U8" s="29"/>
